--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sostdc1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sostdc1-Lrp6.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H2">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N2">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q2">
-        <v>4.063428950683666</v>
+        <v>2.691239178686667</v>
       </c>
       <c r="R2">
-        <v>36.57086055615299</v>
+        <v>24.22115260818</v>
       </c>
       <c r="S2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="T2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H3">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,25 +626,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N3">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q3">
-        <v>9.442584194571889</v>
+        <v>4.591058070923332</v>
       </c>
       <c r="R3">
-        <v>84.98325775114701</v>
+        <v>41.31952263830999</v>
       </c>
       <c r="S3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="T3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H4">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N4">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q4">
-        <v>6.374337267486222</v>
+        <v>2.27903606581</v>
       </c>
       <c r="R4">
-        <v>57.369035407376</v>
+        <v>20.51132459229</v>
       </c>
       <c r="S4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="T4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H5">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N5">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q5">
-        <v>6.448206183691999</v>
+        <v>1.55261456852</v>
       </c>
       <c r="R5">
-        <v>58.033855653228</v>
+        <v>13.97353111668</v>
       </c>
       <c r="S5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="T5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H6">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N6">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q6">
-        <v>3.007797408697666</v>
+        <v>1.510699024253333</v>
       </c>
       <c r="R6">
-        <v>27.070176678279</v>
+        <v>13.59629121828</v>
       </c>
       <c r="S6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="T6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4321403333333333</v>
+        <v>0.21011</v>
       </c>
       <c r="H7">
-        <v>1.296421</v>
+        <v>0.6303299999999999</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N7">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q7">
-        <v>8.31634942087911</v>
+        <v>3.05197633732</v>
       </c>
       <c r="R7">
-        <v>74.84714478791199</v>
+        <v>27.46778703588</v>
       </c>
       <c r="S7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="T7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
     </row>
   </sheetData>
